--- a/BackTest/2020-01-15 BackTest TRX.xlsx
+++ b/BackTest/2020-01-15 BackTest TRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-218392.7117969503</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-218392.7117969503</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>16.53</v>
@@ -521,7 +521,7 @@
         <v>-218392.7117969503</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>16.53</v>
@@ -562,7 +562,7 @@
         <v>-218392.7117969503</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>16.53</v>
@@ -603,7 +603,7 @@
         <v>-218392.7117969503</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>16.53</v>
@@ -640,7 +640,7 @@
         <v>-218392.7117969503</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>16.53</v>
@@ -681,7 +681,7 @@
         <v>-219531.3117969503</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>16.53</v>
@@ -722,7 +722,7 @@
         <v>-219531.3117969503</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>16.51</v>
@@ -759,7 +759,7 @@
         <v>-219531.3117969503</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>16.51</v>
@@ -800,7 +800,7 @@
         <v>-287124.5949969504</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>16.51</v>
@@ -841,7 +841,7 @@
         <v>-286904.5707985304</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>16.5</v>
@@ -878,7 +878,7 @@
         <v>-287116.8564985304</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>16.53</v>
@@ -919,7 +919,7 @@
         <v>-287116.8564985304</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>16.5</v>
@@ -960,7 +960,7 @@
         <v>-287116.8564985304</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>16.5</v>
@@ -997,7 +997,7 @@
         <v>-287116.8564985304</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>16.5</v>
@@ -1038,7 +1038,7 @@
         <v>-287116.8564985304</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>16.5</v>
@@ -1079,7 +1079,7 @@
         <v>-287116.8564985304</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>16.5</v>
@@ -1116,7 +1116,7 @@
         <v>-287116.8564985304</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>16.5</v>
@@ -1157,7 +1157,7 @@
         <v>-287116.8564985304</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>16.5</v>
@@ -1198,7 +1198,7 @@
         <v>-446130.1068985304</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>16.5</v>
@@ -1235,7 +1235,7 @@
         <v>-446130.1068985304</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>16.49</v>
@@ -1276,7 +1276,7 @@
         <v>-440589.9406985304</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>16.49</v>
@@ -1317,7 +1317,7 @@
         <v>-440589.9406985304</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>16.51</v>
@@ -1354,7 +1354,7 @@
         <v>-418675.3617985304</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>16.51</v>
@@ -1395,7 +1395,7 @@
         <v>-418675.3617985304</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>16.53</v>
@@ -1436,7 +1436,7 @@
         <v>-418675.3617985304</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>16.53</v>
@@ -1473,7 +1473,7 @@
         <v>-1247989.18709853</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>16.53</v>
@@ -1514,7 +1514,7 @@
         <v>-1020114.14729853</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>16.48</v>
@@ -1555,7 +1555,7 @@
         <v>-1019366.13729853</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>16.53</v>
@@ -1596,7 +1596,7 @@
         <v>-916881.1563604004</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>16.54</v>
@@ -1637,7 +1637,7 @@
         <v>-811277.2573604004</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>16.55</v>
@@ -1678,7 +1678,7 @@
         <v>-811277.2573604004</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>16.56</v>
@@ -1719,7 +1719,7 @@
         <v>-815543.0273604004</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>16.56</v>
@@ -1760,7 +1760,7 @@
         <v>-775034.6684969504</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>16.55</v>
@@ -1801,7 +1801,7 @@
         <v>-775034.6684969504</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>16.56</v>
@@ -1842,7 +1842,7 @@
         <v>-480427.9178216804</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>16.56</v>
@@ -1883,7 +1883,7 @@
         <v>-534372.4513216804</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>16.58</v>
@@ -1924,7 +1924,7 @@
         <v>-534372.4513216804</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>16.57</v>
@@ -1965,7 +1965,7 @@
         <v>-534372.4513216804</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>16.57</v>
@@ -2006,7 +2006,7 @@
         <v>-729992.2580216804</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>16.57</v>
@@ -2047,7 +2047,7 @@
         <v>-733500.1074216804</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>16.54</v>
@@ -2088,7 +2088,7 @@
         <v>-697545.9545216804</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>16.5</v>
@@ -2129,9 +2129,11 @@
         <v>-697545.9545216804</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>16.56</v>
+      </c>
       <c r="J44" t="n">
         <v>16.53</v>
       </c>
@@ -2168,9 +2170,11 @@
         <v>-720457.8557216803</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>16.56</v>
+      </c>
       <c r="J45" t="n">
         <v>16.53</v>
       </c>
@@ -2207,7 +2211,7 @@
         <v>-720457.8557216803</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>16.51</v>
@@ -2248,7 +2252,7 @@
         <v>-720457.8557216803</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>16.51</v>
@@ -2289,7 +2293,7 @@
         <v>-720238.4700216803</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>16.51</v>
@@ -2330,9 +2334,11 @@
         <v>-720238.4700216803</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>16.58</v>
+      </c>
       <c r="J49" t="n">
         <v>16.53</v>
       </c>
@@ -2369,9 +2375,11 @@
         <v>-720238.4700216803</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>16.58</v>
+      </c>
       <c r="J50" t="n">
         <v>16.53</v>
       </c>
@@ -2408,9 +2416,11 @@
         <v>-720238.4700216803</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>16.58</v>
+      </c>
       <c r="J51" t="n">
         <v>16.53</v>
       </c>
@@ -2447,9 +2457,11 @@
         <v>-714642.8045216803</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>16.58</v>
+      </c>
       <c r="J52" t="n">
         <v>16.53</v>
       </c>
@@ -2486,9 +2498,11 @@
         <v>-763042.8045216803</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>16.59</v>
+      </c>
       <c r="J53" t="n">
         <v>16.53</v>
       </c>
@@ -2525,7 +2539,7 @@
         <v>-763042.8045216803</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>16.58</v>
@@ -2566,7 +2580,7 @@
         <v>-763042.8045216803</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>16.58</v>
@@ -2607,9 +2621,11 @@
         <v>-763042.8045216803</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>16.58</v>
+      </c>
       <c r="J56" t="n">
         <v>16.53</v>
       </c>
@@ -2646,9 +2662,11 @@
         <v>-763042.8045216803</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>16.58</v>
+      </c>
       <c r="J57" t="n">
         <v>16.53</v>
       </c>
@@ -2685,9 +2703,11 @@
         <v>-763042.8045216803</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>16.58</v>
+      </c>
       <c r="J58" t="n">
         <v>16.53</v>
       </c>
@@ -2724,9 +2744,11 @@
         <v>-690935.4611216803</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>16.58</v>
+      </c>
       <c r="J59" t="n">
         <v>16.53</v>
       </c>
@@ -2763,9 +2785,11 @@
         <v>-690935.4611216803</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>16.59</v>
+      </c>
       <c r="J60" t="n">
         <v>16.53</v>
       </c>
@@ -2802,9 +2826,11 @@
         <v>-690935.4611216803</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>16.59</v>
+      </c>
       <c r="J61" t="n">
         <v>16.53</v>
       </c>
@@ -2841,9 +2867,11 @@
         <v>-690935.4611216803</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>16.59</v>
+      </c>
       <c r="J62" t="n">
         <v>16.53</v>
       </c>
@@ -2880,9 +2908,11 @@
         <v>-690935.4611216803</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>16.59</v>
+      </c>
       <c r="J63" t="n">
         <v>16.53</v>
       </c>
@@ -2919,9 +2949,11 @@
         <v>-491208.3831216804</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>16.59</v>
+      </c>
       <c r="J64" t="n">
         <v>16.53</v>
       </c>
@@ -2958,9 +2990,11 @@
         <v>-515824.7215216804</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>16.6</v>
+      </c>
       <c r="J65" t="n">
         <v>16.53</v>
       </c>
@@ -2997,9 +3031,11 @@
         <v>-515824.7215216804</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>16.58</v>
+      </c>
       <c r="J66" t="n">
         <v>16.53</v>
       </c>
@@ -3036,9 +3072,11 @@
         <v>-826276.2035216803</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>16.58</v>
+      </c>
       <c r="J67" t="n">
         <v>16.53</v>
       </c>
@@ -3075,9 +3113,11 @@
         <v>-756905.4820216803</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>16.57</v>
+      </c>
       <c r="J68" t="n">
         <v>16.53</v>
       </c>
@@ -3114,9 +3154,11 @@
         <v>-658353.0789216803</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>16.6</v>
+      </c>
       <c r="J69" t="n">
         <v>16.53</v>
       </c>
@@ -3153,9 +3195,11 @@
         <v>-802926.2164216803</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>16.61</v>
+      </c>
       <c r="J70" t="n">
         <v>16.53</v>
       </c>
@@ -3192,9 +3236,11 @@
         <v>-2171664.14392168</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>16.55</v>
+      </c>
       <c r="J71" t="n">
         <v>16.53</v>
       </c>
@@ -3231,9 +3277,11 @@
         <v>-2171107.14392168</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>16.52</v>
+      </c>
       <c r="J72" t="n">
         <v>16.53</v>
       </c>
@@ -3270,7 +3318,7 @@
         <v>-2169364.14392168</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>16.53</v>
@@ -3311,9 +3359,11 @@
         <v>-2169364.14392168</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>16.6</v>
+      </c>
       <c r="J74" t="n">
         <v>16.53</v>
       </c>
@@ -3350,9 +3400,11 @@
         <v>-2169364.14392168</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>16.6</v>
+      </c>
       <c r="J75" t="n">
         <v>16.53</v>
       </c>
@@ -3389,9 +3441,11 @@
         <v>-2169364.14392168</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>16.6</v>
+      </c>
       <c r="J76" t="n">
         <v>16.53</v>
       </c>
@@ -3428,9 +3482,11 @@
         <v>-2169364.14392168</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>16.6</v>
+      </c>
       <c r="J77" t="n">
         <v>16.53</v>
       </c>
@@ -3467,9 +3523,11 @@
         <v>-2169364.14392168</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>16.6</v>
+      </c>
       <c r="J78" t="n">
         <v>16.53</v>
       </c>
@@ -3506,9 +3564,11 @@
         <v>-2169364.14392168</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>16.6</v>
+      </c>
       <c r="J79" t="n">
         <v>16.53</v>
       </c>
@@ -3545,9 +3605,11 @@
         <v>-2159072.76482168</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>16.6</v>
+      </c>
       <c r="J80" t="n">
         <v>16.53</v>
       </c>
@@ -3584,9 +3646,11 @@
         <v>-2162559.48262168</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>16.61</v>
+      </c>
       <c r="J81" t="n">
         <v>16.53</v>
       </c>
@@ -3623,9 +3687,11 @@
         <v>-2162559.48262168</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>16.6</v>
+      </c>
       <c r="J82" t="n">
         <v>16.53</v>
       </c>
@@ -3662,9 +3728,11 @@
         <v>-2162559.48262168</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>16.6</v>
+      </c>
       <c r="J83" t="n">
         <v>16.53</v>
       </c>
@@ -3701,9 +3769,11 @@
         <v>-2162559.48262168</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>16.6</v>
+      </c>
       <c r="J84" t="n">
         <v>16.53</v>
       </c>
@@ -3740,9 +3810,11 @@
         <v>-1911251.940521681</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>16.6</v>
+      </c>
       <c r="J85" t="n">
         <v>16.53</v>
       </c>
@@ -3779,9 +3851,11 @@
         <v>-1927590.380421681</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>16.61</v>
+      </c>
       <c r="J86" t="n">
         <v>16.53</v>
       </c>
@@ -3818,9 +3892,11 @@
         <v>-1927185.925274181</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>16.6</v>
+      </c>
       <c r="J87" t="n">
         <v>16.53</v>
       </c>
@@ -3857,9 +3933,11 @@
         <v>-1946056.154874181</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>16.61</v>
+      </c>
       <c r="J88" t="n">
         <v>16.53</v>
       </c>
@@ -3896,9 +3974,11 @@
         <v>-1929551.377621681</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>16.6</v>
+      </c>
       <c r="J89" t="n">
         <v>16.53</v>
       </c>
@@ -3935,9 +4015,11 @@
         <v>-1929551.377621681</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>16.64</v>
+      </c>
       <c r="J90" t="n">
         <v>16.53</v>
       </c>
@@ -3974,9 +4056,11 @@
         <v>-1929551.377621681</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>16.64</v>
+      </c>
       <c r="J91" t="n">
         <v>16.53</v>
       </c>
@@ -4013,9 +4097,11 @@
         <v>-1831928.404821681</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>16.64</v>
+      </c>
       <c r="J92" t="n">
         <v>16.53</v>
       </c>
@@ -4052,9 +4138,11 @@
         <v>-1951628.404821681</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>16.65</v>
+      </c>
       <c r="J93" t="n">
         <v>16.53</v>
       </c>
@@ -4091,9 +4179,11 @@
         <v>-1864549.375721681</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>16.64</v>
+      </c>
       <c r="J94" t="n">
         <v>16.53</v>
       </c>
@@ -4130,9 +4220,11 @@
         <v>-1956388.283621681</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>16.65</v>
+      </c>
       <c r="J95" t="n">
         <v>16.53</v>
       </c>
@@ -4169,9 +4261,11 @@
         <v>-1956388.283621681</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>16.64</v>
+      </c>
       <c r="J96" t="n">
         <v>16.53</v>
       </c>
@@ -4208,9 +4302,11 @@
         <v>-1956388.283621681</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>16.64</v>
+      </c>
       <c r="J97" t="n">
         <v>16.53</v>
       </c>
@@ -4247,9 +4343,11 @@
         <v>-1953388.414021681</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>16.64</v>
+      </c>
       <c r="J98" t="n">
         <v>16.53</v>
       </c>
@@ -4286,9 +4384,11 @@
         <v>-1953388.414021681</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>16.65</v>
+      </c>
       <c r="J99" t="n">
         <v>16.53</v>
       </c>
@@ -4325,9 +4425,11 @@
         <v>-1953388.414021681</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>16.65</v>
+      </c>
       <c r="J100" t="n">
         <v>16.53</v>
       </c>
@@ -4364,9 +4466,11 @@
         <v>-1953470.904021681</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>16.65</v>
+      </c>
       <c r="J101" t="n">
         <v>16.53</v>
       </c>
@@ -4403,9 +4507,11 @@
         <v>-1953470.904021681</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>16.64</v>
+      </c>
       <c r="J102" t="n">
         <v>16.53</v>
       </c>
@@ -4442,9 +4548,11 @@
         <v>-1953470.904021681</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>16.64</v>
+      </c>
       <c r="J103" t="n">
         <v>16.53</v>
       </c>
@@ -4481,9 +4589,11 @@
         <v>-1973470.904021681</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>16.64</v>
+      </c>
       <c r="J104" t="n">
         <v>16.53</v>
       </c>
@@ -4520,9 +4630,11 @@
         <v>-1873438.438121681</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>16.6</v>
+      </c>
       <c r="J105" t="n">
         <v>16.53</v>
       </c>
@@ -4559,9 +4671,11 @@
         <v>-1873992.598521681</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>16.65</v>
+      </c>
       <c r="J106" t="n">
         <v>16.53</v>
       </c>
@@ -4598,9 +4712,11 @@
         <v>-1873992.598521681</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>16.62</v>
+      </c>
       <c r="J107" t="n">
         <v>16.53</v>
       </c>
@@ -4637,9 +4753,11 @@
         <v>-1873992.598521681</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>16.62</v>
+      </c>
       <c r="J108" t="n">
         <v>16.53</v>
       </c>
@@ -4676,9 +4794,11 @@
         <v>-1891859.40122168</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>16.62</v>
+      </c>
       <c r="J109" t="n">
         <v>16.53</v>
       </c>
@@ -4715,9 +4835,11 @@
         <v>-1666859.40122168</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>16.61</v>
+      </c>
       <c r="J110" t="n">
         <v>16.53</v>
       </c>
@@ -4754,9 +4876,11 @@
         <v>-1713850.14312168</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>16.62</v>
+      </c>
       <c r="J111" t="n">
         <v>16.53</v>
       </c>
@@ -4793,9 +4917,11 @@
         <v>-1713850.14312168</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>16.61</v>
+      </c>
       <c r="J112" t="n">
         <v>16.53</v>
       </c>
@@ -4832,9 +4958,11 @@
         <v>-2333795.36862168</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>16.61</v>
+      </c>
       <c r="J113" t="n">
         <v>16.53</v>
       </c>
@@ -4871,9 +4999,11 @@
         <v>-2333795.36862168</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>16.6</v>
+      </c>
       <c r="J114" t="n">
         <v>16.53</v>
       </c>
@@ -4910,9 +5040,11 @@
         <v>-2333661.67427752</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>16.6</v>
+      </c>
       <c r="J115" t="n">
         <v>16.53</v>
       </c>
@@ -4949,9 +5081,11 @@
         <v>-2380812.65877752</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>16.62</v>
+      </c>
       <c r="J116" t="n">
         <v>16.53</v>
       </c>
@@ -4988,9 +5122,11 @@
         <v>-2380812.65877752</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>16.6</v>
+      </c>
       <c r="J117" t="n">
         <v>16.53</v>
       </c>
@@ -5027,9 +5163,11 @@
         <v>-2379750.99467752</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>16.6</v>
+      </c>
       <c r="J118" t="n">
         <v>16.53</v>
       </c>
@@ -5066,9 +5204,11 @@
         <v>-2518005.25877752</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>16.62</v>
+      </c>
       <c r="J119" t="n">
         <v>16.53</v>
       </c>
@@ -5105,9 +5245,11 @@
         <v>-2522596.12327752</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>16.6</v>
+      </c>
       <c r="J120" t="n">
         <v>16.53</v>
       </c>
@@ -5144,9 +5286,11 @@
         <v>-2522596.12327752</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>16.59</v>
+      </c>
       <c r="J121" t="n">
         <v>16.53</v>
       </c>
@@ -5183,9 +5327,11 @@
         <v>-2522596.12327752</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>16.59</v>
+      </c>
       <c r="J122" t="n">
         <v>16.53</v>
       </c>
@@ -5222,9 +5368,11 @@
         <v>-2648708.49527752</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>16.59</v>
+      </c>
       <c r="J123" t="n">
         <v>16.53</v>
       </c>
@@ -5261,9 +5409,11 @@
         <v>-2647708.49527752</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>16.58</v>
+      </c>
       <c r="J124" t="n">
         <v>16.53</v>
       </c>
@@ -5300,9 +5450,11 @@
         <v>-2647708.49527752</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>16.6</v>
+      </c>
       <c r="J125" t="n">
         <v>16.53</v>
       </c>
@@ -5339,9 +5491,11 @@
         <v>-2433616.22387752</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>16.6</v>
+      </c>
       <c r="J126" t="n">
         <v>16.53</v>
       </c>
@@ -5378,9 +5532,11 @@
         <v>-2494616.22387752</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>16.65</v>
+      </c>
       <c r="J127" t="n">
         <v>16.53</v>
       </c>
@@ -5417,9 +5573,11 @@
         <v>-2494796.1998246</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>16.64</v>
+      </c>
       <c r="J128" t="n">
         <v>16.53</v>
       </c>
@@ -5456,9 +5614,11 @@
         <v>-2494796.1998246</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>16.63</v>
+      </c>
       <c r="J129" t="n">
         <v>16.53</v>
       </c>
@@ -5495,9 +5655,11 @@
         <v>-2438097.4813246</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>16.63</v>
+      </c>
       <c r="J130" t="n">
         <v>16.53</v>
       </c>
@@ -5534,9 +5696,11 @@
         <v>-2451256.2371246</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>16.67</v>
+      </c>
       <c r="J131" t="n">
         <v>16.53</v>
       </c>
@@ -5573,9 +5737,11 @@
         <v>-2451770.9271246</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>16.65</v>
+      </c>
       <c r="J132" t="n">
         <v>16.53</v>
       </c>
@@ -5612,9 +5778,11 @@
         <v>-2451770.9271246</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>16.61</v>
+      </c>
       <c r="J133" t="n">
         <v>16.53</v>
       </c>
@@ -5651,9 +5819,11 @@
         <v>-2451504.18042593</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>16.61</v>
+      </c>
       <c r="J134" t="n">
         <v>16.53</v>
       </c>
@@ -5690,9 +5860,11 @@
         <v>-2442138.20042593</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>16.66</v>
+      </c>
       <c r="J135" t="n">
         <v>16.53</v>
       </c>
@@ -5729,9 +5901,11 @@
         <v>-2442138.20042593</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>16.67</v>
+      </c>
       <c r="J136" t="n">
         <v>16.53</v>
       </c>
@@ -5768,9 +5942,11 @@
         <v>-2416226.30462593</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>16.67</v>
+      </c>
       <c r="J137" t="n">
         <v>16.53</v>
       </c>
@@ -5807,9 +5983,11 @@
         <v>-2403916.10172593</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>16.68</v>
+      </c>
       <c r="J138" t="n">
         <v>16.53</v>
       </c>
@@ -5846,9 +6024,11 @@
         <v>-2403916.10172593</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>16.69</v>
+      </c>
       <c r="J139" t="n">
         <v>16.53</v>
       </c>
@@ -5885,9 +6065,11 @@
         <v>-2189868.67772593</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>16.69</v>
+      </c>
       <c r="J140" t="n">
         <v>16.53</v>
       </c>
@@ -5924,9 +6106,11 @@
         <v>-2189868.67772593</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>16.7</v>
+      </c>
       <c r="J141" t="n">
         <v>16.53</v>
       </c>
@@ -5963,9 +6147,11 @@
         <v>-2189868.67772593</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>16.7</v>
+      </c>
       <c r="J142" t="n">
         <v>16.53</v>
       </c>
@@ -6002,9 +6188,11 @@
         <v>-2189868.67772593</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>16.7</v>
+      </c>
       <c r="J143" t="n">
         <v>16.53</v>
       </c>
@@ -6860,9 +7048,11 @@
         <v>-2532647.54205647</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>16.7</v>
+      </c>
       <c r="J165" t="n">
         <v>16.53</v>
       </c>
@@ -6899,9 +7089,11 @@
         <v>-2267090.21645647</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>16.7</v>
+      </c>
       <c r="J166" t="n">
         <v>16.53</v>
       </c>
@@ -6938,9 +7130,11 @@
         <v>-2261983.359593309</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>16.72</v>
+      </c>
       <c r="J167" t="n">
         <v>16.53</v>
       </c>
@@ -6977,9 +7171,11 @@
         <v>-2261983.359593309</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>16.76</v>
+      </c>
       <c r="J168" t="n">
         <v>16.53</v>
       </c>
@@ -7562,9 +7758,11 @@
         <v>-1553455.955893309</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>16.75</v>
+      </c>
       <c r="J183" t="n">
         <v>16.53</v>
       </c>
@@ -23396,7 +23594,7 @@
         <v>378879323.1080595</v>
       </c>
       <c r="H589" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="n">
@@ -23404,11 +23602,11 @@
       </c>
       <c r="K589" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L589" t="n">
-        <v>1.038557168784029</v>
+        <v>1</v>
       </c>
       <c r="M589" t="inlineStr"/>
     </row>
@@ -23435,11 +23633,17 @@
         <v>378873208.9644595</v>
       </c>
       <c r="H590" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -23471,8 +23675,14 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -23501,11 +23711,17 @@
         <v>378915040.0756595</v>
       </c>
       <c r="H592" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -23537,8 +23753,14 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -23567,11 +23789,17 @@
         <v>380011680.3996595</v>
       </c>
       <c r="H594" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -23600,11 +23828,17 @@
         <v>380012015.3058537</v>
       </c>
       <c r="H595" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -23633,11 +23867,17 @@
         <v>379315760.1514537</v>
       </c>
       <c r="H596" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -23666,11 +23906,17 @@
         <v>379315760.1514537</v>
       </c>
       <c r="H597" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -23699,11 +23945,17 @@
         <v>379432757.8718536</v>
       </c>
       <c r="H598" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -23732,11 +23984,17 @@
         <v>382592034.9693931</v>
       </c>
       <c r="H599" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -23765,11 +24023,17 @@
         <v>380611468.0340931</v>
       </c>
       <c r="H600" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -23798,11 +24062,17 @@
         <v>381264428.2476931</v>
       </c>
       <c r="H601" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -23831,11 +24101,17 @@
         <v>381264428.2476931</v>
       </c>
       <c r="H602" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -23864,11 +24140,17 @@
         <v>381269055.2114931</v>
       </c>
       <c r="H603" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -23897,11 +24179,17 @@
         <v>381269055.2114931</v>
       </c>
       <c r="H604" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -23930,11 +24218,17 @@
         <v>381269055.2114931</v>
       </c>
       <c r="H605" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -23963,11 +24257,17 @@
         <v>381269055.2114931</v>
       </c>
       <c r="H606" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -23999,8 +24299,14 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -24029,11 +24335,17 @@
         <v>381241093.503593</v>
       </c>
       <c r="H608" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -24062,11 +24374,17 @@
         <v>380866562.845493</v>
       </c>
       <c r="H609" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -24098,8 +24416,14 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -24131,8 +24455,14 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -24164,8 +24494,14 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -24197,8 +24533,14 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -24230,8 +24572,14 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -24263,8 +24611,14 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -24293,13 +24647,19 @@
         <v>379518151.7158991</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L616" t="n">
-        <v>1</v>
+        <v>1.034927404718693</v>
       </c>
       <c r="M616" t="inlineStr"/>
     </row>
@@ -24326,7 +24686,7 @@
         <v>379299634.816399</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -24359,7 +24719,7 @@
         <v>379326222.4217991</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -24392,7 +24752,7 @@
         <v>379326251.461499</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -24425,7 +24785,7 @@
         <v>379234954.0427991</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -24458,7 +24818,7 @@
         <v>379234954.0427991</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -24491,7 +24851,7 @@
         <v>379234954.0427991</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -24524,7 +24884,7 @@
         <v>379811347.3025991</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -24557,7 +24917,7 @@
         <v>379811347.3025991</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -24590,7 +24950,7 @@
         <v>379619518.4721991</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -24623,7 +24983,7 @@
         <v>379647676.9728942</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -24656,7 +25016,7 @@
         <v>379562132.4924942</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -25283,7 +25643,7 @@
         <v>380916081.5227721</v>
       </c>
       <c r="H646" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -25316,7 +25676,7 @@
         <v>380916081.5227721</v>
       </c>
       <c r="H647" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -25349,7 +25709,7 @@
         <v>380779157.4470721</v>
       </c>
       <c r="H648" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -25382,7 +25742,7 @@
         <v>380803909.0732839</v>
       </c>
       <c r="H649" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -25415,7 +25775,7 @@
         <v>380535230.3611838</v>
       </c>
       <c r="H650" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -25448,7 +25808,7 @@
         <v>380535230.3611838</v>
       </c>
       <c r="H651" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -25481,7 +25841,7 @@
         <v>380737672.2337838</v>
       </c>
       <c r="H652" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -25514,7 +25874,7 @@
         <v>380723967.8765838</v>
       </c>
       <c r="H653" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -25547,7 +25907,7 @@
         <v>380122272.4033838</v>
       </c>
       <c r="H654" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -25580,7 +25940,7 @@
         <v>380333433.4424838</v>
       </c>
       <c r="H655" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -25613,7 +25973,7 @@
         <v>379780224.6307838</v>
       </c>
       <c r="H656" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -25646,7 +26006,7 @@
         <v>379818191.5030838</v>
       </c>
       <c r="H657" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -25679,7 +26039,7 @@
         <v>379895677.7172838</v>
       </c>
       <c r="H658" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -25712,7 +26072,7 @@
         <v>379885566.8930839</v>
       </c>
       <c r="H659" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -25745,7 +26105,7 @@
         <v>379885599.7472839</v>
       </c>
       <c r="H660" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -25778,7 +26138,7 @@
         <v>379868051.1444839</v>
       </c>
       <c r="H661" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -25811,7 +26171,7 @@
         <v>379868051.1444839</v>
       </c>
       <c r="H662" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -25844,7 +26204,7 @@
         <v>379868051.1444839</v>
       </c>
       <c r="H663" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -25877,7 +26237,7 @@
         <v>379819256.3266839</v>
       </c>
       <c r="H664" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -25976,7 +26336,7 @@
         <v>380537361.5616839</v>
       </c>
       <c r="H667" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -26405,7 +26765,7 @@
         <v>378641152.5531704</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -26438,7 +26798,7 @@
         <v>378588350.8919705</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -26471,7 +26831,7 @@
         <v>378600636.1241705</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -26504,7 +26864,7 @@
         <v>378535959.0896705</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -26537,7 +26897,7 @@
         <v>378549601.6418705</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -26570,7 +26930,7 @@
         <v>378643653.1272705</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -26603,7 +26963,7 @@
         <v>378826384.1805705</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -26636,7 +26996,7 @@
         <v>378616874.8660706</v>
       </c>
       <c r="H687" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -26669,7 +27029,7 @@
         <v>378616874.8660706</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -26702,7 +27062,7 @@
         <v>378616874.8660706</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -26735,7 +27095,7 @@
         <v>378514331.4917747</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -26768,7 +27128,7 @@
         <v>379024381.7730706</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -27989,7 +28349,7 @@
         <v>378706436.1676371</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -28022,7 +28382,7 @@
         <v>378668186.2970371</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -28055,7 +28415,7 @@
         <v>378755562.2084371</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -28088,7 +28448,7 @@
         <v>378712430.2203372</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -28121,7 +28481,7 @@
         <v>378712430.2203372</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -28154,7 +28514,7 @@
         <v>378741108.1641371</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -28187,7 +28547,7 @@
         <v>378752845.3051371</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -28220,7 +28580,7 @@
         <v>378608113.6266371</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -28253,7 +28613,7 @@
         <v>378445751.9682371</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -28286,7 +28646,7 @@
         <v>378830128.7526371</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -28319,7 +28679,7 @@
         <v>378779608.0685371</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -28352,7 +28712,7 @@
         <v>378385414.7004371</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -28385,7 +28745,7 @@
         <v>378441715.5665371</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -28682,7 +29042,7 @@
         <v>376276997.121637</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -28715,7 +29075,7 @@
         <v>376165274.6437929</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -28748,7 +29108,7 @@
         <v>376165274.6437929</v>
       </c>
       <c r="H751" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -28781,7 +29141,7 @@
         <v>376165274.6437929</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -28814,7 +29174,7 @@
         <v>376401993.5999929</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -28847,7 +29207,7 @@
         <v>376486735.1339929</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -28880,7 +29240,7 @@
         <v>376357994.8556929</v>
       </c>
       <c r="H755" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -28913,7 +29273,7 @@
         <v>376927945.1846929</v>
       </c>
       <c r="H756" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -28946,7 +29306,7 @@
         <v>376795496.2503929</v>
       </c>
       <c r="H757" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -28979,7 +29339,7 @@
         <v>377264626.2821928</v>
       </c>
       <c r="H758" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -29012,7 +29372,7 @@
         <v>377264626.2821928</v>
       </c>
       <c r="H759" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -29045,7 +29405,7 @@
         <v>377264626.2821928</v>
       </c>
       <c r="H760" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -29078,7 +29438,7 @@
         <v>376752634.2383928</v>
       </c>
       <c r="H761" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -29111,7 +29471,7 @@
         <v>376752634.2383928</v>
       </c>
       <c r="H762" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -29144,7 +29504,7 @@
         <v>376204462.4694929</v>
       </c>
       <c r="H763" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -29177,7 +29537,7 @@
         <v>376204462.4694929</v>
       </c>
       <c r="H764" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -29210,7 +29570,7 @@
         <v>376204462.4694929</v>
       </c>
       <c r="H765" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -29243,7 +29603,7 @@
         <v>376204462.4694929</v>
       </c>
       <c r="H766" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -29276,7 +29636,7 @@
         <v>376204462.4694929</v>
       </c>
       <c r="H767" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -29309,7 +29669,7 @@
         <v>376265727.9054928</v>
       </c>
       <c r="H768" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -29342,7 +29702,7 @@
         <v>376634152.9010928</v>
       </c>
       <c r="H769" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -29375,7 +29735,7 @@
         <v>377007014.7330928</v>
       </c>
       <c r="H770" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -29408,7 +29768,7 @@
         <v>376879410.1586394</v>
       </c>
       <c r="H771" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -29441,7 +29801,7 @@
         <v>376879842.6386394</v>
       </c>
       <c r="H772" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -29474,7 +29834,7 @@
         <v>376789842.6386394</v>
       </c>
       <c r="H773" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -29507,7 +29867,7 @@
         <v>376921836.1746859</v>
       </c>
       <c r="H774" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -29540,7 +29900,7 @@
         <v>376963587.6232859</v>
       </c>
       <c r="H775" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -29573,7 +29933,7 @@
         <v>377073714.0690859</v>
       </c>
       <c r="H776" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -29606,7 +29966,7 @@
         <v>377176497.0118859</v>
       </c>
       <c r="H777" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -29672,7 +30032,7 @@
         <v>378142149.1183859</v>
       </c>
       <c r="H779" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -29705,7 +30065,7 @@
         <v>378142149.1183859</v>
       </c>
       <c r="H780" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -29738,7 +30098,7 @@
         <v>377141919.3016859</v>
       </c>
       <c r="H781" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -29804,7 +30164,7 @@
         <v>377151054.8732859</v>
       </c>
       <c r="H783" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -29837,7 +30197,7 @@
         <v>377151387.8784972</v>
       </c>
       <c r="H784" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -29870,7 +30230,7 @@
         <v>377151387.8784972</v>
       </c>
       <c r="H785" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -29936,7 +30296,7 @@
         <v>377709758.7143164</v>
       </c>
       <c r="H787" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -29969,7 +30329,7 @@
         <v>377409805.6867164</v>
       </c>
       <c r="H788" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -30002,7 +30362,7 @@
         <v>377409805.6867164</v>
       </c>
       <c r="H789" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -30035,7 +30395,7 @@
         <v>377833881.9831164</v>
       </c>
       <c r="H790" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -30068,7 +30428,7 @@
         <v>377697300.1258164</v>
       </c>
       <c r="H791" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -30101,7 +30461,7 @@
         <v>377897110.3581164</v>
       </c>
       <c r="H792" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -30134,7 +30494,7 @@
         <v>377694273.1935164</v>
       </c>
       <c r="H793" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -30167,7 +30527,7 @@
         <v>378412919.4105164</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -30200,7 +30560,7 @@
         <v>378089426.3265387</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -30233,7 +30593,7 @@
         <v>378089426.3265387</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -30266,7 +30626,7 @@
         <v>378648916.1059387</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -30299,7 +30659,7 @@
         <v>379431776.3793387</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -30332,7 +30692,7 @@
         <v>379348264.1523387</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -30365,7 +30725,7 @@
         <v>379453573.4301795</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -30398,7 +30758,7 @@
         <v>381601809.8031795</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -30431,7 +30791,7 @@
         <v>383860261.9273795</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -30464,7 +30824,7 @@
         <v>383860261.9273795</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -30497,7 +30857,7 @@
         <v>382990780.2662802</v>
       </c>
       <c r="H804" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -30530,7 +30890,7 @@
         <v>383518329.542781</v>
       </c>
       <c r="H805" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -30563,7 +30923,7 @@
         <v>383886396.936881</v>
       </c>
       <c r="H806" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -30596,7 +30956,7 @@
         <v>386934501.857881</v>
       </c>
       <c r="H807" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -30629,7 +30989,7 @@
         <v>387689861.802281</v>
       </c>
       <c r="H808" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -30662,7 +31022,7 @@
         <v>387487183.046881</v>
       </c>
       <c r="H809" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -30695,7 +31055,7 @@
         <v>385572408.440381</v>
       </c>
       <c r="H810" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -30728,7 +31088,7 @@
         <v>385483187.913881</v>
       </c>
       <c r="H811" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -30761,7 +31121,7 @@
         <v>385483786.1404256</v>
       </c>
       <c r="H812" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -30794,7 +31154,7 @@
         <v>385346240.7684256</v>
       </c>
       <c r="H813" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -30827,7 +31187,7 @@
         <v>385515022.3521256</v>
       </c>
       <c r="H814" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -30860,7 +31220,7 @@
         <v>385519206.8826256</v>
       </c>
       <c r="H815" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -30992,7 +31352,7 @@
         <v>385703639.8050256</v>
       </c>
       <c r="H819" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -31025,7 +31385,7 @@
         <v>385703639.8050256</v>
       </c>
       <c r="H820" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -31058,7 +31418,7 @@
         <v>385458701.0007256</v>
       </c>
       <c r="H821" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -31091,7 +31451,7 @@
         <v>385458701.0007256</v>
       </c>
       <c r="H822" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -31124,7 +31484,7 @@
         <v>386421581.9358256</v>
       </c>
       <c r="H823" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -31157,7 +31517,7 @@
         <v>384737805.3944256</v>
       </c>
       <c r="H824" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -31190,7 +31550,7 @@
         <v>383857097.8427256</v>
       </c>
       <c r="H825" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -31223,7 +31583,7 @@
         <v>385657741.7672256</v>
       </c>
       <c r="H826" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -31256,7 +31616,7 @@
         <v>385716281.0739256</v>
       </c>
       <c r="H827" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -31289,7 +31649,7 @@
         <v>385716281.0739256</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -31322,7 +31682,7 @@
         <v>385616929.9933256</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -31355,7 +31715,7 @@
         <v>385608715.2701256</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -31388,7 +31748,7 @@
         <v>386080957.7137256</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -31421,7 +31781,7 @@
         <v>386050458.0726256</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -31454,7 +31814,7 @@
         <v>386114106.9403256</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -31487,7 +31847,7 @@
         <v>386175486.2273256</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -31520,7 +31880,7 @@
         <v>386175696.4892256</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -31553,7 +31913,7 @@
         <v>386466213.3874255</v>
       </c>
       <c r="H836" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -31586,7 +31946,7 @@
         <v>385867531.7039255</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -31960,6 +32320,6 @@
       <c r="M848" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest TRX.xlsx
+++ b/BackTest/2020-01-15 BackTest TRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -3482,11 +3482,9 @@
         <v>-2169364.14392168</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>16.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
         <v>16.53</v>
       </c>
@@ -3523,11 +3521,9 @@
         <v>-2169364.14392168</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>16.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
         <v>16.53</v>
       </c>
@@ -3564,11 +3560,9 @@
         <v>-2169364.14392168</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>16.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
         <v>16.53</v>
       </c>
@@ -3605,11 +3599,9 @@
         <v>-2159072.76482168</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>16.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
         <v>16.53</v>
       </c>
@@ -3646,11 +3638,9 @@
         <v>-2162559.48262168</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>16.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
         <v>16.53</v>
       </c>
@@ -3687,11 +3677,9 @@
         <v>-2162559.48262168</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>16.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
         <v>16.53</v>
       </c>
@@ -3728,11 +3716,9 @@
         <v>-2162559.48262168</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>16.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
         <v>16.53</v>
       </c>
@@ -3769,11 +3755,9 @@
         <v>-2162559.48262168</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>16.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
         <v>16.53</v>
       </c>
@@ -3810,11 +3794,9 @@
         <v>-1911251.940521681</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>16.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
         <v>16.53</v>
       </c>
@@ -3851,11 +3833,9 @@
         <v>-1927590.380421681</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>16.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
         <v>16.53</v>
       </c>
@@ -3892,11 +3872,9 @@
         <v>-1927185.925274181</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>16.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
         <v>16.53</v>
       </c>
@@ -3933,11 +3911,9 @@
         <v>-1946056.154874181</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>16.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
         <v>16.53</v>
       </c>
@@ -3974,11 +3950,9 @@
         <v>-1929551.377621681</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>16.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
         <v>16.53</v>
       </c>
@@ -4015,11 +3989,9 @@
         <v>-1929551.377621681</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>16.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
         <v>16.53</v>
       </c>
@@ -4056,11 +4028,9 @@
         <v>-1929551.377621681</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>16.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
         <v>16.53</v>
       </c>
@@ -4097,11 +4067,9 @@
         <v>-1831928.404821681</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>16.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
         <v>16.53</v>
       </c>
@@ -4138,11 +4106,9 @@
         <v>-1951628.404821681</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>16.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
         <v>16.53</v>
       </c>
@@ -4179,11 +4145,9 @@
         <v>-1864549.375721681</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>16.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
         <v>16.53</v>
       </c>
@@ -4220,11 +4184,9 @@
         <v>-1956388.283621681</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>16.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
         <v>16.53</v>
       </c>
@@ -4261,11 +4223,9 @@
         <v>-1956388.283621681</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>16.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
         <v>16.53</v>
       </c>
@@ -4302,11 +4262,9 @@
         <v>-1956388.283621681</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>16.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
         <v>16.53</v>
       </c>
@@ -4343,11 +4301,9 @@
         <v>-1953388.414021681</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>16.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
         <v>16.53</v>
       </c>
@@ -4384,11 +4340,9 @@
         <v>-1953388.414021681</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>16.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
         <v>16.53</v>
       </c>
@@ -4425,11 +4379,9 @@
         <v>-1953388.414021681</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>16.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
         <v>16.53</v>
       </c>
@@ -4466,11 +4418,9 @@
         <v>-1953470.904021681</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>16.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
         <v>16.53</v>
       </c>
@@ -4507,11 +4457,9 @@
         <v>-1953470.904021681</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>16.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
         <v>16.53</v>
       </c>
@@ -4548,11 +4496,9 @@
         <v>-1953470.904021681</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>16.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
         <v>16.53</v>
       </c>
@@ -4589,11 +4535,9 @@
         <v>-1973470.904021681</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>16.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
         <v>16.53</v>
       </c>
@@ -4630,11 +4574,9 @@
         <v>-1873438.438121681</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>16.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
         <v>16.53</v>
       </c>
@@ -4712,11 +4654,9 @@
         <v>-1873992.598521681</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>16.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
         <v>16.53</v>
       </c>
@@ -4753,11 +4693,9 @@
         <v>-1873992.598521681</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>16.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
         <v>16.53</v>
       </c>
@@ -4794,11 +4732,9 @@
         <v>-1891859.40122168</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>16.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
         <v>16.53</v>
       </c>
@@ -5737,11 +5673,9 @@
         <v>-2451770.9271246</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>16.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
         <v>16.53</v>
       </c>
@@ -5860,11 +5794,9 @@
         <v>-2442138.20042593</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>16.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
         <v>16.53</v>
       </c>
@@ -5901,11 +5833,9 @@
         <v>-2442138.20042593</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>16.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
         <v>16.53</v>
       </c>
@@ -5942,11 +5872,9 @@
         <v>-2416226.30462593</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>16.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
         <v>16.53</v>
       </c>
@@ -5983,11 +5911,9 @@
         <v>-2403916.10172593</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>16.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
         <v>16.53</v>
       </c>
@@ -6024,11 +5950,9 @@
         <v>-2403916.10172593</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>16.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
         <v>16.53</v>
       </c>
@@ -6065,11 +5989,9 @@
         <v>-2189868.67772593</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>16.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
         <v>16.53</v>
       </c>
@@ -6106,11 +6028,9 @@
         <v>-2189868.67772593</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>16.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
         <v>16.53</v>
       </c>
@@ -6147,11 +6067,9 @@
         <v>-2189868.67772593</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>16.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
         <v>16.53</v>
       </c>
@@ -6188,11 +6106,9 @@
         <v>-2189868.67772593</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>16.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
         <v>16.53</v>
       </c>
@@ -7048,11 +6964,9 @@
         <v>-2532647.54205647</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>16.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
         <v>16.53</v>
       </c>
@@ -7089,11 +7003,9 @@
         <v>-2267090.21645647</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>16.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
         <v>16.53</v>
       </c>
@@ -7130,11 +7042,9 @@
         <v>-2261983.359593309</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>16.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
         <v>16.53</v>
       </c>
@@ -7171,11 +7081,9 @@
         <v>-2261983.359593309</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>16.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
         <v>16.53</v>
       </c>
@@ -7758,11 +7666,9 @@
         <v>-1553455.955893309</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>16.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
         <v>16.53</v>
       </c>
@@ -10178,9 +10084,11 @@
         <v>2897544.31641268</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>16.75</v>
+      </c>
       <c r="J245" t="n">
         <v>16.53</v>
       </c>
@@ -11270,7 +11178,7 @@
         <v>371213936.2603418</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
@@ -11278,11 +11186,11 @@
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L273" t="n">
-        <v>1</v>
+        <v>1.012543859649123</v>
       </c>
       <c r="M273" t="inlineStr"/>
     </row>
@@ -11309,17 +11217,11 @@
         <v>371213936.2603418</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -11348,17 +11250,11 @@
         <v>371531932.3276418</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11387,17 +11283,11 @@
         <v>371406191.6102418</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11426,17 +11316,11 @@
         <v>371406191.6102418</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11468,14 +11352,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11507,14 +11385,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11543,17 +11415,11 @@
         <v>371406191.6102418</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11582,17 +11448,11 @@
         <v>371406191.6102418</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11621,17 +11481,11 @@
         <v>371357210.5661418</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11660,17 +11514,11 @@
         <v>371357210.5661418</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11699,17 +11547,11 @@
         <v>365021337.3619418</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11738,17 +11580,11 @@
         <v>365021927.3619418</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11777,17 +11613,11 @@
         <v>365018235.2619418</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11816,17 +11646,11 @@
         <v>365064000.2421418</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11855,17 +11679,11 @@
         <v>365362679.0023418</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11894,17 +11712,11 @@
         <v>365362679.0023418</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11933,17 +11745,11 @@
         <v>365357765.6132418</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11972,17 +11778,11 @@
         <v>365110498.0829418</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -12011,17 +11811,11 @@
         <v>365095743.7376418</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -12050,17 +11844,11 @@
         <v>365099313.8657417</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -12089,17 +11877,11 @@
         <v>365148401.1329417</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -12128,17 +11910,11 @@
         <v>365259668.4435417</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -12167,17 +11943,11 @@
         <v>365246967.9953417</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -12206,17 +11976,11 @@
         <v>365435055.4621417</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -12245,17 +12009,11 @@
         <v>365435055.4621417</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -12284,17 +12042,11 @@
         <v>365438992.0933417</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -12323,17 +12075,11 @@
         <v>365438992.0933417</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -12362,17 +12108,11 @@
         <v>365328753.9093417</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -12401,17 +12141,11 @@
         <v>365437771.8753417</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -12440,17 +12174,11 @@
         <v>365437771.8753417</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -12479,17 +12207,11 @@
         <v>365417771.8753417</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -12518,17 +12240,11 @@
         <v>366320512.1216417</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12560,14 +12276,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12599,14 +12309,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12635,17 +12339,11 @@
         <v>366336112.1216417</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12674,17 +12372,11 @@
         <v>366336068.8880417</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12713,17 +12405,11 @@
         <v>368768801.2068416</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12752,17 +12438,11 @@
         <v>369809455.1806417</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12791,17 +12471,11 @@
         <v>370475252.0494564</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12830,17 +12504,11 @@
         <v>370105029.2016564</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12872,14 +12540,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12911,14 +12573,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12950,14 +12606,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12989,14 +12639,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -13028,14 +12672,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -13067,14 +12705,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -13106,14 +12738,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -13145,14 +12771,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -13184,14 +12804,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -13223,14 +12837,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -13262,14 +12870,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -13301,14 +12903,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -13340,14 +12936,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -13379,14 +12969,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -13418,14 +13002,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -13457,14 +13035,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -13496,14 +13068,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -13535,14 +13101,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -13574,14 +13134,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13613,14 +13167,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13652,14 +13200,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13691,14 +13233,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13730,14 +13266,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13769,14 +13299,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13808,14 +13332,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13847,14 +13365,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13886,14 +13398,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13925,14 +13431,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13964,14 +13464,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -14003,14 +13497,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -14042,14 +13530,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -14081,14 +13563,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -14120,14 +13596,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -14159,14 +13629,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -14198,14 +13662,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -14237,14 +13695,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -14276,14 +13728,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -14315,14 +13761,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -14354,14 +13794,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -14393,14 +13827,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -14432,14 +13860,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -14471,14 +13893,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -14510,14 +13926,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -14549,14 +13959,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -14585,17 +13989,11 @@
         <v>369612213.7145066</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -14624,17 +14022,11 @@
         <v>369612213.7145066</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -14666,14 +14058,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -14705,14 +14091,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14744,14 +14124,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14783,14 +14157,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14822,14 +14190,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14861,14 +14223,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14900,14 +14256,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14939,14 +14289,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14978,14 +14322,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -15017,14 +14355,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -15056,14 +14388,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -15095,14 +14421,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -15134,14 +14454,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -15173,14 +14487,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -15212,14 +14520,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -15251,14 +14553,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -15290,14 +14586,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -15329,14 +14619,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -15368,14 +14652,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -15407,14 +14685,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -15446,14 +14718,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -15485,14 +14751,8 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -15524,14 +14784,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -15563,14 +14817,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -15602,14 +14850,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -15641,14 +14883,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -15680,14 +14916,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -15716,17 +14946,11 @@
         <v>371585265.1308818</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15755,17 +14979,11 @@
         <v>371585265.1308818</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15794,17 +15012,11 @@
         <v>371580477.2962818</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15833,17 +15045,11 @@
         <v>371580477.2962818</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15872,17 +15078,11 @@
         <v>371772977.2962818</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15911,17 +15111,11 @@
         <v>371769138.2262818</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15950,17 +15144,11 @@
         <v>371784290.6156818</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15989,17 +15177,11 @@
         <v>371462745.6434819</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -16028,17 +15210,11 @@
         <v>371462745.6434819</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -16070,14 +15246,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -16109,14 +15279,8 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -16148,14 +15312,8 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -16187,14 +15345,8 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -16226,14 +15378,8 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -16265,14 +15411,8 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -16304,14 +15444,8 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -16343,14 +15477,8 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -16382,14 +15510,8 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -16421,14 +15543,8 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -16460,14 +15576,8 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -16499,14 +15609,8 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -16538,14 +15642,8 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -16577,14 +15675,8 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -16616,14 +15708,8 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -16655,14 +15741,8 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -16694,14 +15774,8 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -16733,14 +15807,8 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -16772,14 +15840,8 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -16811,14 +15873,8 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -16850,14 +15906,8 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -16889,14 +15939,8 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -16928,14 +15972,8 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -16967,14 +16005,8 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -17006,14 +16038,8 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -17045,14 +16071,8 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -17084,14 +16104,8 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -17123,14 +16137,8 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -17162,14 +16170,8 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -17201,14 +16203,8 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -17240,14 +16236,8 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -17279,14 +16269,8 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -17318,14 +16302,8 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -17357,14 +16335,8 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -17396,14 +16368,8 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -17435,14 +16401,8 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -17474,14 +16434,8 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -17513,14 +16467,8 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -17552,14 +16500,8 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -17591,14 +16533,8 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -17630,14 +16566,8 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -17669,14 +16599,8 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -17708,14 +16632,8 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -17747,14 +16665,8 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -17786,14 +16698,8 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -17825,14 +16731,8 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -17864,14 +16764,8 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -17903,14 +16797,8 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -17942,14 +16830,8 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -17981,14 +16863,8 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -18020,14 +16896,8 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -18059,14 +16929,8 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -18098,14 +16962,8 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -18137,14 +16995,8 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -18176,14 +17028,8 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -18215,14 +17061,8 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -18254,14 +17094,8 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -18293,14 +17127,8 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -18332,14 +17160,8 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -18371,14 +17193,8 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -18410,14 +17226,8 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -18449,14 +17259,8 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -18488,14 +17292,8 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -18527,14 +17325,8 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -18566,14 +17358,8 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -18605,14 +17391,8 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -18644,14 +17424,8 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -18683,14 +17457,8 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -18722,14 +17490,8 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -18761,14 +17523,8 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -18800,14 +17556,8 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -18839,14 +17589,8 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -18875,17 +17619,11 @@
         <v>371483895.2368221</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -18914,17 +17652,11 @@
         <v>370795627.6725221</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -18953,17 +17685,11 @@
         <v>370807777.3729221</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -18992,17 +17718,11 @@
         <v>370807709.0169221</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -19031,17 +17751,11 @@
         <v>370808041.9975217</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -19070,17 +17784,11 @@
         <v>370808041.9975217</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -19109,17 +17817,11 @@
         <v>371406428.1738217</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -19148,17 +17850,11 @@
         <v>371438891.4682217</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -19187,17 +17883,11 @@
         <v>371525251.4467217</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -19226,17 +17916,11 @@
         <v>371530675.9680217</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -19265,17 +17949,11 @@
         <v>371530675.9680217</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -19304,17 +17982,11 @@
         <v>371519675.9680217</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -19343,17 +18015,11 @@
         <v>371465607.9913217</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -19382,17 +18048,11 @@
         <v>371593401.1090217</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -19421,17 +18081,11 @@
         <v>371570691.5964217</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -19460,17 +18114,11 @@
         <v>371570691.5964217</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -19499,17 +18147,11 @@
         <v>371995952.2496216</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -19538,17 +18180,11 @@
         <v>371912507.0962216</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -19577,17 +18213,11 @@
         <v>371921896.5685216</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -19616,17 +18246,11 @@
         <v>371877594.6577216</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -19655,17 +18279,11 @@
         <v>371808341.0283216</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -19694,17 +18312,11 @@
         <v>371810980.0851216</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -19733,17 +18345,11 @@
         <v>371850473.4872217</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -19772,17 +18378,11 @@
         <v>372123502.7354217</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -19811,17 +18411,11 @@
         <v>372720274.0005217</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -19850,17 +18444,11 @@
         <v>372319774.0005217</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -19889,17 +18477,11 @@
         <v>372288629.7676216</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -19928,17 +18510,11 @@
         <v>372288662.7530217</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -19967,17 +18543,11 @@
         <v>372227126.6128114</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -20006,17 +18576,11 @@
         <v>372227126.6128114</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -20045,17 +18609,11 @@
         <v>372227126.6128114</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -20084,17 +18642,11 @@
         <v>372164249.5653114</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -20123,17 +18675,11 @@
         <v>372164249.5653114</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -20162,17 +18708,11 @@
         <v>372274296.1585271</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -20201,17 +18741,11 @@
         <v>372274296.1585271</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -20240,17 +18774,11 @@
         <v>372268237.0054271</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -20279,17 +18807,11 @@
         <v>372268237.0054271</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -20318,17 +18840,11 @@
         <v>372408309.4813271</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -20357,17 +18873,11 @@
         <v>372408309.4813271</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -20396,17 +18906,11 @@
         <v>372389299.1313271</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -20435,17 +18939,11 @@
         <v>372390987.7260271</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -20474,17 +18972,11 @@
         <v>372672616.1402374</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -20513,17 +19005,11 @@
         <v>372672616.1402374</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -20552,17 +19038,11 @@
         <v>372637171.9233374</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -20591,17 +19071,11 @@
         <v>372638171.9233374</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -20630,17 +19104,11 @@
         <v>372597097.5744374</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -20669,17 +19137,11 @@
         <v>373450446.1819374</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -20708,17 +19170,11 @@
         <v>373417005.4197374</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -20747,17 +19203,11 @@
         <v>373417005.4197374</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -20786,17 +19236,11 @@
         <v>373417005.4197374</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -20825,17 +19269,11 @@
         <v>373417005.4197374</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -20864,17 +19302,11 @@
         <v>373369479.7622374</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -20903,17 +19335,11 @@
         <v>373369479.7622374</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -20942,17 +19368,11 @@
         <v>373663319.0273933</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -20981,17 +19401,11 @@
         <v>373318922.4207934</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -21020,17 +19434,11 @@
         <v>373271389.9635934</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -21059,17 +19467,11 @@
         <v>373272511.4907933</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J524" t="inlineStr"/>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -21098,17 +19500,11 @@
         <v>373285936.4981933</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -21137,17 +19533,11 @@
         <v>373018933.0721933</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -21176,17 +19566,11 @@
         <v>373222685.3514896</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -21218,14 +19602,8 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -21254,17 +19632,11 @@
         <v>373205815.8166896</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -21293,17 +19665,11 @@
         <v>373205815.8166896</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -21332,17 +19698,11 @@
         <v>373205815.8166896</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J531" t="inlineStr"/>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -21371,17 +19731,11 @@
         <v>373237230.0517896</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -21410,17 +19764,11 @@
         <v>373117810.4881896</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -21449,17 +19797,11 @@
         <v>373117810.4881896</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J534" t="inlineStr"/>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -21488,17 +19830,11 @@
         <v>373151740.6755432</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -21527,17 +19863,11 @@
         <v>373151740.6755432</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -21566,17 +19896,11 @@
         <v>372879360.4556432</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -21608,14 +19932,8 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -21644,17 +19962,11 @@
         <v>372879360.4556432</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J539" t="inlineStr"/>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -21686,14 +19998,8 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -21725,14 +20031,8 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -21764,14 +20064,8 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J542" t="inlineStr"/>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -21803,14 +20097,8 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J543" t="inlineStr"/>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -21842,14 +20130,8 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J544" t="inlineStr"/>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -21881,14 +20163,8 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J545" t="inlineStr"/>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -21920,14 +20196,8 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -21959,14 +20229,8 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J547" t="inlineStr"/>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -21998,14 +20262,8 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -22037,14 +20295,8 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -22076,14 +20328,8 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -22115,14 +20361,8 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -22154,14 +20394,8 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J552" t="inlineStr"/>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -22193,14 +20427,8 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -22232,14 +20460,8 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J554" t="inlineStr"/>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -22271,14 +20493,8 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -22310,14 +20526,8 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -22349,14 +20559,8 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J557" t="inlineStr"/>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -22388,14 +20592,8 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J558" t="inlineStr"/>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -22427,14 +20625,8 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J559" t="inlineStr"/>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -22466,14 +20658,8 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J560" t="inlineStr"/>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -22505,14 +20691,8 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J561" t="inlineStr"/>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -22544,14 +20724,8 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J562" t="inlineStr"/>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -22583,14 +20757,8 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J563" t="inlineStr"/>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -22622,14 +20790,8 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J564" t="inlineStr"/>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -22661,14 +20823,8 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J565" t="inlineStr"/>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -22700,14 +20856,8 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J566" t="inlineStr"/>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -22739,14 +20889,8 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J567" t="inlineStr"/>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -22778,14 +20922,8 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J568" t="inlineStr"/>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -22817,14 +20955,8 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J569" t="inlineStr"/>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -22856,14 +20988,8 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J570" t="inlineStr"/>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -22895,14 +21021,8 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J571" t="inlineStr"/>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -22931,17 +21051,11 @@
         <v>373483671.2117826</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J572" t="inlineStr"/>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -22970,17 +21084,11 @@
         <v>373483671.2117826</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J573" t="inlineStr"/>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -23009,17 +21117,11 @@
         <v>373521943.4875826</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J574" t="inlineStr"/>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -23048,17 +21150,11 @@
         <v>373642326.7154826</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J575" t="inlineStr"/>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -23087,17 +21183,11 @@
         <v>374659840.2244826</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J576" t="inlineStr"/>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -23126,17 +21216,11 @@
         <v>374659840.2244826</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J577" t="inlineStr"/>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -23165,17 +21249,11 @@
         <v>374659840.2244826</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J578" t="inlineStr"/>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -23204,17 +21282,11 @@
         <v>374659840.2244826</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -23243,17 +21315,11 @@
         <v>374658841.2244826</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -23282,17 +21348,11 @@
         <v>376397386.9587826</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -23321,17 +21381,11 @@
         <v>376397386.9587826</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -23360,17 +21414,11 @@
         <v>376396350.6205826</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -23399,17 +21447,11 @@
         <v>377334437.3991826</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -23438,17 +21480,11 @@
         <v>378984521.0902826</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J585" t="inlineStr"/>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -23477,17 +21513,11 @@
         <v>378984521.0902826</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J586" t="inlineStr"/>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -23516,17 +21546,11 @@
         <v>378876510.9919595</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J587" t="inlineStr"/>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -23555,17 +21579,11 @@
         <v>378876510.9919595</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J588" t="inlineStr"/>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -23594,17 +21612,11 @@
         <v>378879323.1080595</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J589" t="inlineStr"/>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -23633,17 +21645,11 @@
         <v>378873208.9644595</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J590" t="inlineStr"/>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -23672,17 +21678,11 @@
         <v>378914962.5948595</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J591" t="inlineStr"/>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -23711,17 +21711,11 @@
         <v>378915040.0756595</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J592" t="inlineStr"/>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -23750,17 +21744,11 @@
         <v>379138935.6347594</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J593" t="inlineStr"/>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -23789,17 +21777,11 @@
         <v>380011680.3996595</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -23828,17 +21810,11 @@
         <v>380012015.3058537</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J595" t="inlineStr"/>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -23867,17 +21843,11 @@
         <v>379315760.1514537</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J596" t="inlineStr"/>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -23906,17 +21876,11 @@
         <v>379315760.1514537</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J597" t="inlineStr"/>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -23945,17 +21909,11 @@
         <v>379432757.8718536</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J598" t="inlineStr"/>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -23984,17 +21942,11 @@
         <v>382592034.9693931</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J599" t="inlineStr"/>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -24023,17 +21975,11 @@
         <v>380611468.0340931</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J600" t="inlineStr"/>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -24062,17 +22008,11 @@
         <v>381264428.2476931</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J601" t="inlineStr"/>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -24101,17 +22041,11 @@
         <v>381264428.2476931</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J602" t="inlineStr"/>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -24140,17 +22074,11 @@
         <v>381269055.2114931</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -24179,17 +22107,11 @@
         <v>381269055.2114931</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -24218,17 +22140,11 @@
         <v>381269055.2114931</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J605" t="inlineStr"/>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -24257,17 +22173,11 @@
         <v>381269055.2114931</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J606" t="inlineStr"/>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -24296,17 +22206,11 @@
         <v>381239844.038193</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J607" t="inlineStr"/>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -24335,17 +22239,11 @@
         <v>381241093.503593</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J608" t="inlineStr"/>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -24374,17 +22272,11 @@
         <v>380866562.845493</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J609" t="inlineStr"/>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -24413,17 +22305,11 @@
         <v>380894939.3217991</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J610" t="inlineStr"/>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -24452,17 +22338,11 @@
         <v>380760487.5069991</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J611" t="inlineStr"/>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -24491,17 +22371,11 @@
         <v>380760487.5069991</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J612" t="inlineStr"/>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -24530,17 +22404,11 @@
         <v>380760487.5069991</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J613" t="inlineStr"/>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -24569,17 +22437,11 @@
         <v>379518151.7158991</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J614" t="inlineStr"/>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -24608,17 +22470,11 @@
         <v>379518151.7158991</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J615" t="inlineStr"/>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -24650,16 +22506,10 @@
         <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J616" t="inlineStr"/>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
-        <v>1.034927404718693</v>
+        <v>1</v>
       </c>
       <c r="M616" t="inlineStr"/>
     </row>
@@ -25049,7 +22899,7 @@
         <v>380129748.7484767</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -25643,7 +23493,7 @@
         <v>380916081.5227721</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -25676,7 +23526,7 @@
         <v>380916081.5227721</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -25709,7 +23559,7 @@
         <v>380779157.4470721</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -25742,7 +23592,7 @@
         <v>380803909.0732839</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -25775,7 +23625,7 @@
         <v>380535230.3611838</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -25808,7 +23658,7 @@
         <v>380535230.3611838</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -25841,7 +23691,7 @@
         <v>380737672.2337838</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -25874,7 +23724,7 @@
         <v>380723967.8765838</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -25907,7 +23757,7 @@
         <v>380122272.4033838</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -25940,7 +23790,7 @@
         <v>380333433.4424838</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -25973,7 +23823,7 @@
         <v>379780224.6307838</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -26006,7 +23856,7 @@
         <v>379818191.5030838</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -26039,7 +23889,7 @@
         <v>379895677.7172838</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -26072,7 +23922,7 @@
         <v>379885566.8930839</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -26105,7 +23955,7 @@
         <v>379885599.7472839</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -26138,7 +23988,7 @@
         <v>379868051.1444839</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -26171,7 +24021,7 @@
         <v>379868051.1444839</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -26204,7 +24054,7 @@
         <v>379868051.1444839</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -26237,7 +24087,7 @@
         <v>379819256.3266839</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -26303,7 +24153,7 @@
         <v>379959536.1462839</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -26336,7 +24186,7 @@
         <v>380537361.5616839</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -26369,7 +24219,7 @@
         <v>380578993.7793839</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -26402,7 +24252,7 @@
         <v>380577606.4338839</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -26435,7 +24285,7 @@
         <v>380518823.3675906</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -26468,7 +24318,7 @@
         <v>378873730.1106906</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -26501,7 +24351,7 @@
         <v>378879476.3017865</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -26534,7 +24384,7 @@
         <v>378867115.7134866</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -26765,7 +24615,7 @@
         <v>378641152.5531704</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -26798,7 +24648,7 @@
         <v>378588350.8919705</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -26831,7 +24681,7 @@
         <v>378600636.1241705</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -26864,7 +24714,7 @@
         <v>378535959.0896705</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -26897,7 +24747,7 @@
         <v>378549601.6418705</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -26930,7 +24780,7 @@
         <v>378643653.1272705</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -26963,7 +24813,7 @@
         <v>378826384.1805705</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -26996,7 +24846,7 @@
         <v>378616874.8660706</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -27029,7 +24879,7 @@
         <v>378616874.8660706</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -27161,7 +25011,7 @@
         <v>379024381.7730706</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -27194,7 +25044,7 @@
         <v>378996272.2450706</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -27227,7 +25077,7 @@
         <v>379117965.6651706</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -27260,7 +25110,7 @@
         <v>379117965.6651706</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -27293,7 +25143,7 @@
         <v>379217965.6651706</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -27326,7 +25176,7 @@
         <v>379215344.5652705</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -27359,7 +25209,7 @@
         <v>379215344.5652705</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -27392,7 +25242,7 @@
         <v>379215344.5652705</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -27425,7 +25275,7 @@
         <v>379215603.0876673</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -27458,7 +25308,7 @@
         <v>378066672.6113673</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -27491,7 +25341,7 @@
         <v>378086672.6113673</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -27524,7 +25374,7 @@
         <v>378086672.6113673</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -27557,7 +25407,7 @@
         <v>378086672.6113673</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -27590,7 +25440,7 @@
         <v>378086672.6113673</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -27623,7 +25473,7 @@
         <v>378086672.6113673</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -27656,7 +25506,7 @@
         <v>378086672.6113673</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -27689,7 +25539,7 @@
         <v>378086672.6113673</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -27722,7 +25572,7 @@
         <v>378087503.1345673</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -27755,7 +25605,7 @@
         <v>378087503.1345673</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -27788,7 +25638,7 @@
         <v>378317720.8324673</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -27821,7 +25671,7 @@
         <v>378652905.7644618</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -27854,7 +25704,7 @@
         <v>378662191.2307618</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -27887,7 +25737,7 @@
         <v>378603969.6099618</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -27920,7 +25770,7 @@
         <v>378885707.8654618</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -28085,7 +25935,7 @@
         <v>378750608.7052295</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -28118,7 +25968,7 @@
         <v>378754441.2088295</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -28151,7 +26001,7 @@
         <v>378674803.0352295</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -28184,7 +26034,7 @@
         <v>378579109.2662654</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -28217,7 +26067,7 @@
         <v>378749366.0654013</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -28250,7 +26100,7 @@
         <v>378579508.2830371</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -28283,7 +26133,7 @@
         <v>378633465.4465371</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -28316,7 +26166,7 @@
         <v>378560682.5266371</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -28481,7 +26331,7 @@
         <v>378712430.2203372</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -28514,7 +26364,7 @@
         <v>378741108.1641371</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -28547,7 +26397,7 @@
         <v>378752845.3051371</v>
       </c>
       <c r="H734" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -28580,7 +26430,7 @@
         <v>378608113.6266371</v>
       </c>
       <c r="H735" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -28778,7 +26628,7 @@
         <v>377746735.1454371</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -28811,7 +26661,7 @@
         <v>377944489.8150371</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -28844,7 +26694,7 @@
         <v>376804985.9339371</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -28877,7 +26727,7 @@
         <v>376357580.4474371</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -28910,7 +26760,7 @@
         <v>376374001.3521371</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -28943,7 +26793,7 @@
         <v>376398700.7782371</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -28976,7 +26826,7 @@
         <v>376414953.5339813</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -29042,7 +26892,7 @@
         <v>376276997.121637</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -29075,7 +26925,7 @@
         <v>376165274.6437929</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -29108,7 +26958,7 @@
         <v>376165274.6437929</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -29141,7 +26991,7 @@
         <v>376165274.6437929</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -29174,7 +27024,7 @@
         <v>376401993.5999929</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -29207,7 +27057,7 @@
         <v>376486735.1339929</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -29240,7 +27090,7 @@
         <v>376357994.8556929</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -29273,7 +27123,7 @@
         <v>376927945.1846929</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -29306,7 +27156,7 @@
         <v>376795496.2503929</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -29339,7 +27189,7 @@
         <v>377264626.2821928</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -29372,7 +27222,7 @@
         <v>377264626.2821928</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -29405,7 +27255,7 @@
         <v>377264626.2821928</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -29438,7 +27288,7 @@
         <v>376752634.2383928</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -29471,7 +27321,7 @@
         <v>376752634.2383928</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -29504,7 +27354,7 @@
         <v>376204462.4694929</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -29537,7 +27387,7 @@
         <v>376204462.4694929</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -29570,7 +27420,7 @@
         <v>376204462.4694929</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -29603,7 +27453,7 @@
         <v>376204462.4694929</v>
       </c>
       <c r="H766" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -29636,7 +27486,7 @@
         <v>376204462.4694929</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -30329,7 +28179,7 @@
         <v>377409805.6867164</v>
       </c>
       <c r="H788" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -30362,7 +28212,7 @@
         <v>377409805.6867164</v>
       </c>
       <c r="H789" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -30560,7 +28410,7 @@
         <v>378089426.3265387</v>
       </c>
       <c r="H795" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -30593,7 +28443,7 @@
         <v>378089426.3265387</v>
       </c>
       <c r="H796" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -30857,7 +28707,7 @@
         <v>382990780.2662802</v>
       </c>
       <c r="H804" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -30890,7 +28740,7 @@
         <v>383518329.542781</v>
       </c>
       <c r="H805" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -31352,7 +29202,7 @@
         <v>385703639.8050256</v>
       </c>
       <c r="H819" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -31385,7 +29235,7 @@
         <v>385703639.8050256</v>
       </c>
       <c r="H820" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -31418,7 +29268,7 @@
         <v>385458701.0007256</v>
       </c>
       <c r="H821" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -31451,7 +29301,7 @@
         <v>385458701.0007256</v>
       </c>
       <c r="H822" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -31484,7 +29334,7 @@
         <v>386421581.9358256</v>
       </c>
       <c r="H823" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -31517,7 +29367,7 @@
         <v>384737805.3944256</v>
       </c>
       <c r="H824" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -31550,7 +29400,7 @@
         <v>383857097.8427256</v>
       </c>
       <c r="H825" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -31583,7 +29433,7 @@
         <v>385657741.7672256</v>
       </c>
       <c r="H826" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -31616,7 +29466,7 @@
         <v>385716281.0739256</v>
       </c>
       <c r="H827" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -31649,7 +29499,7 @@
         <v>385716281.0739256</v>
       </c>
       <c r="H828" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -31682,7 +29532,7 @@
         <v>385616929.9933256</v>
       </c>
       <c r="H829" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -31715,7 +29565,7 @@
         <v>385608715.2701256</v>
       </c>
       <c r="H830" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -31748,7 +29598,7 @@
         <v>386080957.7137256</v>
       </c>
       <c r="H831" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -31781,7 +29631,7 @@
         <v>386050458.0726256</v>
       </c>
       <c r="H832" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -31814,7 +29664,7 @@
         <v>386114106.9403256</v>
       </c>
       <c r="H833" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -31847,7 +29697,7 @@
         <v>386175486.2273256</v>
       </c>
       <c r="H834" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -31880,7 +29730,7 @@
         <v>386175696.4892256</v>
       </c>
       <c r="H835" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -31913,7 +29763,7 @@
         <v>386466213.3874255</v>
       </c>
       <c r="H836" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -31946,7 +29796,7 @@
         <v>385867531.7039255</v>
       </c>
       <c r="H837" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -32320,6 +30170,6 @@
       <c r="M848" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>